--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1143134.559508114</v>
+        <v>1101310.777839107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584665</v>
+        <v>460545.8926584664</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075582</v>
+        <v>8768687.11007558</v>
       </c>
     </row>
     <row r="9">
@@ -664,16 +664,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>200.3360962888296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>68.21015448122992</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>184.942010685325</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>57.44924514251336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>15.30273751513505</v>
+        <v>71.01467844038824</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>135.4132168533396</v>
+        <v>121.8668959675859</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,13 +992,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
@@ -1153,7 +1153,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>64.13863269867674</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>99.52914681518099</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>217.73626715623</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.83416391026586</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>124.5381957297419</v>
       </c>
       <c r="I11" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>6.456834824088546</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S12" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>195.443275668797</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,16 +1542,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>51.1165713336397</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>286.3054133346574</v>
       </c>
       <c r="F14" t="n">
-        <v>31.91983947900028</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H14" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T14" t="n">
         <v>217.7829317747374</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>29.38391736390425</v>
       </c>
       <c r="T15" t="n">
-        <v>130.7836368264333</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U15" t="n">
         <v>225.8986597023843</v>
@@ -1776,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>36.48436605884934</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>54.86879163620181</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>43.26585203414596</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>117.889549819912</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>71.59362474574012</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1925,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>119.3260324149127</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
@@ -1934,7 +1934,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>24.64815776426665</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>65.23170841679575</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2064,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>101.2952820371726</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>179.4234425693047</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>414.089049841944</v>
@@ -2101,7 +2101,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I20" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
-        <v>152.9376416850984</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>59.83930139749142</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S21" t="n">
         <v>159.6212195484502</v>
@@ -2216,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>172.5161931289813</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>48.88096232627827</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>123.320794865197</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2323,7 +2323,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>164.2807973785947</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2335,10 +2335,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I23" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>12.86396074963929</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2408,16 +2408,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>91.6867458199809</v>
       </c>
       <c r="G24" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>53.92880121529013</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
         <v>225.8986597023843</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>43.3560697996877</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>164.8520486563675</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H26" t="n">
-        <v>83.87301351161248</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2645,13 +2645,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>45.56224815806302</v>
       </c>
       <c r="G27" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>159.6212195484502</v>
@@ -2690,7 +2690,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U27" t="n">
-        <v>35.82205612034655</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33.18028092251136</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,19 +2797,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>335.9250429968126</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>275.2826093775799</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,13 +2879,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>58.13811622008009</v>
+        <v>66.55239406957186</v>
       </c>
       <c r="H30" t="n">
         <v>105.9637990594094</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S30" t="n">
         <v>159.6212195484502</v>
@@ -2927,7 +2927,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3006,10 +3006,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>120.1263698699159</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>351.2214067453402</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,10 +3046,10 @@
         <v>414.089049841944</v>
       </c>
       <c r="H32" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>125.1320680988951</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>43.26585203414595</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>35.51866479453847</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S35" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>62.72757422197675</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>245.8860597462383</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>108.2790131141762</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U36" t="n">
-        <v>149.3187780068791</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.8482076906871</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>194.3020103492095</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>8.74964588464732</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>86.50109783475344</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,22 +3581,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>96.09408149962255</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>66.12942426949597</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
         <v>105.9637990594094</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>159.6212195484502</v>
@@ -3641,7 +3641,7 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3666,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>102.8286085101168</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>268.7418428881282</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3745,13 +3745,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>207.60697280949</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3787,10 +3787,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>56.76233236436518</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3833,10 +3833,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.9637990594094</v>
+        <v>77.12621633739248</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571424</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>53.92880121529013</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.8986597023843</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>42.50056939668216</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,22 +3945,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.7418428881282</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>296.2021088863439</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>137.6594874400836</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20.93857480559832</v>
+        <v>154.2963905495673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -4064,10 +4064,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>136.6941370086349</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4121,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4146,16 +4146,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4465608509556</v>
+        <v>16.60419956430028</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>85.0104353010119</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4415,13 +4415,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O3" t="n">
         <v>781.4136778972854</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="V3" t="n">
-        <v>728.9050472788936</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="W3" t="n">
-        <v>728.9050472788936</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="X3" t="n">
-        <v>728.9050472788936</v>
+        <v>502.6601697108322</v>
       </c>
       <c r="Y3" t="n">
-        <v>670.8755067309003</v>
+        <v>502.6601697108322</v>
       </c>
     </row>
     <row r="4">
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="D5" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="E5" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="F5" t="n">
-        <v>502.8591282797204</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
         <v>243.9530410142718</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.8046290289238</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304.9965798960495</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C6" t="n">
-        <v>304.9965798960495</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D6" t="n">
-        <v>156.0621702347982</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W6" t="n">
-        <v>720.6083788665362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X6" t="n">
-        <v>512.7568786610034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y6" t="n">
-        <v>304.9965798960495</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="C8" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="D8" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="E8" t="n">
-        <v>761.6974622895962</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="F8" t="n">
-        <v>518.2486856454962</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>274.7999090013961</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
       <c r="Y8" t="n">
-        <v>953.9655401424092</v>
+        <v>737.7960950516754</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>454.3181732824481</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="X9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="Y9" t="n">
-        <v>210.869396638348</v>
+        <v>508.9694238887622</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>212.2335778049849</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="C11" t="n">
-        <v>212.2335778049849</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="D11" t="n">
-        <v>212.2335778049849</v>
+        <v>976.7511738597734</v>
       </c>
       <c r="E11" t="n">
-        <v>212.2335778049849</v>
+        <v>590.9629212615291</v>
       </c>
       <c r="F11" t="n">
-        <v>212.2335778049849</v>
+        <v>590.9629212615291</v>
       </c>
       <c r="G11" t="n">
-        <v>212.2335778049849</v>
+        <v>172.691153744414</v>
       </c>
       <c r="H11" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I11" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N11" t="n">
         <v>1610.799342072557</v>
@@ -5077,16 +5077,16 @@
         <v>1687.785527736638</v>
       </c>
       <c r="V11" t="n">
-        <v>1356.722640393067</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W11" t="n">
-        <v>1003.953985122953</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="X11" t="n">
-        <v>630.4882268618733</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="Y11" t="n">
-        <v>240.3488948860615</v>
+        <v>1335.016872466524</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.0544483625931</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C12" t="n">
-        <v>501.6014190814661</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D12" t="n">
-        <v>352.6670094202149</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E12" t="n">
-        <v>193.4295544147594</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F12" t="n">
-        <v>46.89499644164432</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G12" t="n">
         <v>46.89499644164432</v>
@@ -5120,13 +5120,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>121.6684232076319</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L12" t="n">
-        <v>491.2196383161158</v>
+        <v>645.6158192373777</v>
       </c>
       <c r="M12" t="n">
         <v>974.4476973832902</v>
@@ -5144,28 +5144,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2338.227766704349</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2176.994211604904</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="T12" t="n">
-        <v>1977.451513658935</v>
+        <v>2084.763385350902</v>
       </c>
       <c r="U12" t="n">
-        <v>1749.271049313092</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V12" t="n">
-        <v>1514.118941081349</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W12" t="n">
-        <v>1259.881584353148</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X12" t="n">
-        <v>1052.030084147615</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y12" t="n">
-        <v>844.2697853826612</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J13" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L13" t="n">
         <v>194.9121237200978</v>
@@ -5223,28 +5223,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R13" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S13" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T13" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U13" t="n">
-        <v>453.4106385108907</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V13" t="n">
-        <v>453.4106385108907</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>453.4106385108907</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>993.0962167480591</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="C14" t="n">
-        <v>993.0962167480591</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="D14" t="n">
-        <v>993.0962167480591</v>
+        <v>754.3641511654841</v>
       </c>
       <c r="E14" t="n">
-        <v>993.0962167480591</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N14" t="n">
         <v>1610.799342072557</v>
@@ -5305,25 +5305,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S14" t="n">
-        <v>2270.376276991246</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T14" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U14" t="n">
-        <v>2050.393517622824</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V14" t="n">
-        <v>1719.330630279253</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W14" t="n">
-        <v>1366.561975009139</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X14" t="n">
-        <v>993.0962167480591</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="Y14" t="n">
-        <v>993.0962167480591</v>
+        <v>1140.963991229606</v>
       </c>
     </row>
     <row r="15">
@@ -5333,40 +5333,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>850.8043343374655</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C15" t="n">
-        <v>676.3513050563386</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D15" t="n">
-        <v>527.4168953950873</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E15" t="n">
-        <v>368.1794403896317</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F15" t="n">
-        <v>221.6448824165167</v>
+        <v>184.9698823089523</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H15" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I15" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K15" t="n">
-        <v>121.6684232076319</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L15" t="n">
-        <v>491.2196383161158</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832902</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N15" t="n">
         <v>1486.172378671464</v>
@@ -5381,28 +5381,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2315.069097472212</v>
       </c>
       <c r="T15" t="n">
-        <v>2152.201399633807</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U15" t="n">
-        <v>1924.020935287964</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V15" t="n">
-        <v>1688.868827056222</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W15" t="n">
-        <v>1434.63147032802</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X15" t="n">
-        <v>1226.779970122487</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y15" t="n">
-        <v>1019.019671357534</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F16" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I16" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J16" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200978</v>
@@ -5469,19 +5469,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U16" t="n">
-        <v>607.7685734363102</v>
+        <v>318.5874281822333</v>
       </c>
       <c r="V16" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="W16" t="n">
-        <v>607.7685734363102</v>
+        <v>274.8845473396617</v>
       </c>
       <c r="X16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>165.9753497950908</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="C17" t="n">
-        <v>165.9753497950908</v>
+        <v>823.4324625655099</v>
       </c>
       <c r="D17" t="n">
-        <v>165.9753497950908</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="E17" t="n">
-        <v>165.9753497950908</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="F17" t="n">
-        <v>165.9753497950908</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G17" t="n">
-        <v>165.9753497950908</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H17" t="n">
-        <v>165.9753497950908</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
@@ -5554,13 +5554,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W17" t="n">
-        <v>929.5804400319823</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="X17" t="n">
-        <v>556.1146817709025</v>
+        <v>1282.349095302096</v>
       </c>
       <c r="Y17" t="n">
-        <v>165.9753497950908</v>
+        <v>1210.032302629632</v>
       </c>
     </row>
     <row r="18">
@@ -5573,22 +5573,22 @@
         <v>622.1327649551154</v>
       </c>
       <c r="C18" t="n">
-        <v>447.6797356739884</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D18" t="n">
-        <v>298.7453260127371</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E18" t="n">
-        <v>139.5078710072816</v>
+        <v>193.4295544147594</v>
       </c>
       <c r="F18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H18" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
@@ -5603,16 +5603,16 @@
         <v>705.6153558007836</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N18" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O18" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P18" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>271.762173680651</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="C19" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="D19" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="E19" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F19" t="n">
-        <v>205.8715591182311</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G19" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5697,28 +5697,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V19" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W19" t="n">
-        <v>453.4106385108907</v>
+        <v>318.3514033993496</v>
       </c>
       <c r="X19" t="n">
-        <v>453.4106385108907</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="Y19" t="n">
-        <v>453.4106385108907</v>
+        <v>216.0329366951349</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2115.893810642661</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="C20" t="n">
-        <v>2115.893810642661</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="D20" t="n">
-        <v>1757.628112035911</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E20" t="n">
-        <v>1371.839859437666</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F20" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G20" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H20" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J20" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K20" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275677</v>
       </c>
       <c r="L20" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M20" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N20" t="n">
         <v>1610.799342072557</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S20" t="n">
-        <v>2270.376276991246</v>
+        <v>2161.554709220192</v>
       </c>
       <c r="T20" t="n">
-        <v>2115.893810642661</v>
+        <v>1941.571949851771</v>
       </c>
       <c r="U20" t="n">
-        <v>2115.893810642661</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="V20" t="n">
-        <v>2115.893810642661</v>
+        <v>1687.785527736638</v>
       </c>
       <c r="W20" t="n">
-        <v>2115.893810642661</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="X20" t="n">
-        <v>2115.893810642661</v>
+        <v>1335.016872466524</v>
       </c>
       <c r="Y20" t="n">
-        <v>2115.893810642661</v>
+        <v>1335.016872466524</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>676.0544483625931</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C21" t="n">
-        <v>501.6014190814661</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D21" t="n">
-        <v>352.6670094202149</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E21" t="n">
-        <v>193.4295544147594</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F21" t="n">
         <v>46.89499644164432</v>
@@ -5834,22 +5834,22 @@
         <v>106.8945330050503</v>
       </c>
       <c r="K21" t="n">
-        <v>273.1268607498447</v>
+        <v>336.0641406922997</v>
       </c>
       <c r="L21" t="n">
-        <v>642.6780758583286</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M21" t="n">
-        <v>1125.906134925503</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N21" t="n">
-        <v>1637.630816213677</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O21" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P21" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q21" t="n">
         <v>2344.749822082216</v>
@@ -5864,19 +5864,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1749.271049313092</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V21" t="n">
-        <v>1514.118941081349</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W21" t="n">
-        <v>1259.881584353148</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X21" t="n">
-        <v>1052.030084147615</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y21" t="n">
-        <v>844.2697853826612</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.0727469424309</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="C22" t="n">
-        <v>391.0727469424309</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D22" t="n">
-        <v>341.6980375219478</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E22" t="n">
         <v>193.7849439395547</v>
@@ -5913,7 +5913,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K22" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L22" t="n">
         <v>194.9121237200978</v>
@@ -5937,25 +5937,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T22" t="n">
-        <v>391.0727469424309</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U22" t="n">
-        <v>391.0727469424309</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="V22" t="n">
-        <v>391.0727469424309</v>
+        <v>483.2021139765153</v>
       </c>
       <c r="W22" t="n">
-        <v>391.0727469424309</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="X22" t="n">
-        <v>391.0727469424309</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.0727469424309</v>
+        <v>193.7849439395547</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>630.5053453221001</v>
+        <v>961.4555726570361</v>
       </c>
       <c r="C23" t="n">
-        <v>630.5053453221001</v>
+        <v>961.4555726570361</v>
       </c>
       <c r="D23" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E23" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F23" t="n">
-        <v>630.5053453221001</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G23" t="n">
-        <v>212.2335778049849</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I23" t="n">
         <v>46.89499644164432</v>
@@ -6016,25 +6016,25 @@
         <v>2344.749822082216</v>
       </c>
       <c r="S23" t="n">
-        <v>2331.755922335106</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T23" t="n">
-        <v>2111.773162966684</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U23" t="n">
-        <v>2111.773162966684</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V23" t="n">
-        <v>1780.710275623113</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="W23" t="n">
-        <v>1780.710275623113</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="X23" t="n">
-        <v>1407.244517362034</v>
+        <v>1738.19474469697</v>
       </c>
       <c r="Y23" t="n">
-        <v>1017.105185386222</v>
+        <v>1348.055412721158</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551154</v>
       </c>
       <c r="C24" t="n">
-        <v>814.4261909236466</v>
+        <v>447.6797356739884</v>
       </c>
       <c r="D24" t="n">
-        <v>665.4917812623953</v>
+        <v>298.7453260127371</v>
       </c>
       <c r="E24" t="n">
-        <v>506.2543262569397</v>
+        <v>139.5078710072816</v>
       </c>
       <c r="F24" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G24" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H24" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I24" t="n">
         <v>46.89499644164432</v>
@@ -6080,10 +6080,10 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
         <v>2193.291384540003</v>
@@ -6092,28 +6092,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2290.276285501115</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2290.276285501115</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>2062.095821155272</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.94371292353</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W24" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X24" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401373</v>
       </c>
       <c r="Y24" t="n">
-        <v>1157.094557224842</v>
+        <v>790.3481019751835</v>
       </c>
     </row>
     <row r="25">
@@ -6177,13 +6177,13 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T25" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U25" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V25" t="n">
-        <v>90.68900634031877</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W25" t="n">
         <v>46.89499644164432</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>500.5777290503515</v>
+        <v>1386.434754362433</v>
       </c>
       <c r="C26" t="n">
-        <v>131.6152121099398</v>
+        <v>1017.472237422021</v>
       </c>
       <c r="D26" t="n">
-        <v>131.6152121099398</v>
+        <v>1017.472237422021</v>
       </c>
       <c r="E26" t="n">
-        <v>131.6152121099398</v>
+        <v>631.6839848237771</v>
       </c>
       <c r="F26" t="n">
-        <v>131.6152121099398</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G26" t="n">
-        <v>131.6152121099398</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H26" t="n">
         <v>46.89499644164432</v>
@@ -6250,28 +6250,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1613.411982645667</v>
+        <v>2090.963399967084</v>
       </c>
       <c r="V26" t="n">
-        <v>1613.411982645667</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="W26" t="n">
-        <v>1260.643327375553</v>
+        <v>1759.900512623513</v>
       </c>
       <c r="X26" t="n">
-        <v>887.1775691144733</v>
+        <v>1386.434754362433</v>
       </c>
       <c r="Y26" t="n">
-        <v>887.1775691144733</v>
+        <v>1386.434754362433</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>814.129334229901</v>
+        <v>682.5765037404603</v>
       </c>
       <c r="C27" t="n">
-        <v>639.676304948774</v>
+        <v>508.1234744593334</v>
       </c>
       <c r="D27" t="n">
-        <v>490.7418952875228</v>
+        <v>359.1890647980821</v>
       </c>
       <c r="E27" t="n">
-        <v>331.5044402820673</v>
+        <v>199.9516097926266</v>
       </c>
       <c r="F27" t="n">
-        <v>184.9698823089523</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G27" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H27" t="n">
         <v>46.89499644164432</v>
@@ -6305,52 +6305,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K27" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M27" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O27" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P27" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q27" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R27" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S27" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T27" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U27" t="n">
-        <v>1887.3459351804</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V27" t="n">
-        <v>1652.193826948657</v>
+        <v>1520.640996459217</v>
       </c>
       <c r="W27" t="n">
-        <v>1397.956470220456</v>
+        <v>1266.403639731015</v>
       </c>
       <c r="X27" t="n">
-        <v>1190.104970014923</v>
+        <v>1058.552139525482</v>
       </c>
       <c r="Y27" t="n">
-        <v>982.344671249969</v>
+        <v>850.7918407605284</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C28" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G28" t="n">
-        <v>346.3547163191317</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H28" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I28" t="n">
         <v>46.89499644164432</v>
@@ -6414,22 +6414,22 @@
         <v>607.7685734363102</v>
       </c>
       <c r="T28" t="n">
-        <v>379.8701515943957</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U28" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V28" t="n">
-        <v>379.8701515943957</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W28" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X28" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y28" t="n">
-        <v>379.8701515943957</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1112.192522694706</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="C29" t="n">
-        <v>743.2300057542948</v>
+        <v>772.0014742891942</v>
       </c>
       <c r="D29" t="n">
-        <v>743.2300057542948</v>
+        <v>432.6832490398886</v>
       </c>
       <c r="E29" t="n">
-        <v>743.2300057542948</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F29" t="n">
-        <v>743.2300057542948</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G29" t="n">
-        <v>324.9582382371796</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
         <v>46.89499644164432</v>
@@ -6463,16 +6463,16 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915536</v>
       </c>
       <c r="K29" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275678</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.5916738244551</v>
       </c>
       <c r="M29" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N29" t="n">
         <v>1610.799342072557</v>
@@ -6493,22 +6493,22 @@
         <v>2087.181164129222</v>
       </c>
       <c r="T29" t="n">
-        <v>2087.181164129222</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U29" t="n">
-        <v>1833.394742014089</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V29" t="n">
-        <v>1502.331854670518</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="W29" t="n">
-        <v>1502.331854670518</v>
+        <v>1514.429749490686</v>
       </c>
       <c r="X29" t="n">
-        <v>1502.331854670518</v>
+        <v>1140.963991229606</v>
       </c>
       <c r="Y29" t="n">
-        <v>1112.192522694706</v>
+        <v>1140.963991229606</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>682.5765037404603</v>
+        <v>850.313229300958</v>
       </c>
       <c r="C30" t="n">
-        <v>508.1234744593334</v>
+        <v>675.860200019831</v>
       </c>
       <c r="D30" t="n">
-        <v>359.1890647980821</v>
+        <v>526.9257903585798</v>
       </c>
       <c r="E30" t="n">
-        <v>359.1890647980821</v>
+        <v>367.6883353531243</v>
       </c>
       <c r="F30" t="n">
-        <v>212.6545068249671</v>
+        <v>221.1537773800092</v>
       </c>
       <c r="G30" t="n">
         <v>153.9291369056942</v>
@@ -6548,10 +6548,10 @@
         <v>336.0641406922996</v>
       </c>
       <c r="L30" t="n">
-        <v>705.6153558007836</v>
+        <v>491.2196383161158</v>
       </c>
       <c r="M30" t="n">
-        <v>1188.843414867958</v>
+        <v>974.4476973832902</v>
       </c>
       <c r="N30" t="n">
         <v>1486.172378671464</v>
@@ -6566,28 +6566,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R30" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S30" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U30" t="n">
-        <v>1755.793104690959</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V30" t="n">
-        <v>1520.640996459217</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W30" t="n">
-        <v>1266.403639731015</v>
+        <v>1434.140365291513</v>
       </c>
       <c r="X30" t="n">
-        <v>1058.552139525482</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y30" t="n">
-        <v>850.7918407605284</v>
+        <v>1018.528566321026</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="C31" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="D31" t="n">
         <v>46.89499644164432</v>
@@ -6654,19 +6654,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U31" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V31" t="n">
-        <v>336.3121664786049</v>
+        <v>486.4288058909407</v>
       </c>
       <c r="W31" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.89499644164432</v>
+        <v>197.0116358539801</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1740.802376378078</v>
+        <v>1958.149982018095</v>
       </c>
       <c r="C32" t="n">
-        <v>1371.839859437666</v>
+        <v>1589.187465077683</v>
       </c>
       <c r="D32" t="n">
-        <v>1371.839859437666</v>
+        <v>1230.921766470933</v>
       </c>
       <c r="E32" t="n">
-        <v>1371.839859437666</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F32" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G32" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I32" t="n">
         <v>46.89499644164432</v>
@@ -6724,28 +6724,28 @@
         <v>2344.749822082217</v>
       </c>
       <c r="R32" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="U32" t="n">
-        <v>1740.802376378078</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="V32" t="n">
-        <v>1740.802376378078</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="W32" t="n">
-        <v>1740.802376378078</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="X32" t="n">
-        <v>1740.802376378078</v>
+        <v>2344.749822082217</v>
       </c>
       <c r="Y32" t="n">
-        <v>1740.802376378078</v>
+        <v>2344.749822082217</v>
       </c>
     </row>
     <row r="33">
@@ -6791,10 +6791,10 @@
         <v>1128.843878304552</v>
       </c>
       <c r="N33" t="n">
-        <v>1640.568559592725</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O33" t="n">
-        <v>2042.280991189052</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
         <v>2344.749822082216</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>90.597877284216</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="C34" t="n">
-        <v>46.89499644164432</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="D34" t="n">
-        <v>46.89499644164432</v>
+        <v>229.6623831259572</v>
       </c>
       <c r="E34" t="n">
-        <v>46.89499644164432</v>
+        <v>229.6623831259572</v>
       </c>
       <c r="F34" t="n">
-        <v>46.89499644164432</v>
+        <v>82.77243562804682</v>
       </c>
       <c r="G34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U34" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V34" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W34" t="n">
-        <v>318.5874281822333</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X34" t="n">
-        <v>90.597877284216</v>
+        <v>379.7790225382929</v>
       </c>
       <c r="Y34" t="n">
-        <v>90.597877284216</v>
+        <v>379.7790225382929</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1159.911464587051</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C35" t="n">
-        <v>790.948947646639</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D35" t="n">
-        <v>432.6832490398886</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E35" t="n">
-        <v>46.89499644164432</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
         <v>46.89499644164432</v>
@@ -6964,25 +6964,25 @@
         <v>2270.376276991246</v>
       </c>
       <c r="S35" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="T35" t="n">
-        <v>1867.1984047608</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="U35" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="V35" t="n">
-        <v>1550.050796562862</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="W35" t="n">
-        <v>1550.050796562862</v>
+        <v>2022.006519671813</v>
       </c>
       <c r="X35" t="n">
-        <v>1550.050796562862</v>
+        <v>1648.540761410733</v>
       </c>
       <c r="Y35" t="n">
-        <v>1159.911464587051</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>921.1634746939509</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C36" t="n">
-        <v>746.7104454128239</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D36" t="n">
-        <v>597.7760357515726</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E36" t="n">
-        <v>438.5385807461172</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F36" t="n">
-        <v>292.0040227730022</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G36" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H36" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I36" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050503</v>
       </c>
       <c r="K36" t="n">
-        <v>276.0646041288937</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L36" t="n">
-        <v>645.6158192373775</v>
+        <v>705.6153558007836</v>
       </c>
       <c r="M36" t="n">
-        <v>1128.843878304552</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N36" t="n">
-        <v>1637.630816213677</v>
+        <v>1700.568096156132</v>
       </c>
       <c r="O36" t="n">
-        <v>2039.343247810003</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P36" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S36" t="n">
-        <v>2344.749822082216</v>
+        <v>2174.933342777501</v>
       </c>
       <c r="T36" t="n">
-        <v>2145.207124136247</v>
+        <v>1975.390644831532</v>
       </c>
       <c r="U36" t="n">
-        <v>1994.38007564445</v>
+        <v>1747.21018048569</v>
       </c>
       <c r="V36" t="n">
-        <v>1759.227967412707</v>
+        <v>1512.058072253947</v>
       </c>
       <c r="W36" t="n">
-        <v>1504.990610684506</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="X36" t="n">
-        <v>1297.139110478973</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y36" t="n">
-        <v>1089.378811714019</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>205.3275294625404</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="C37" t="n">
-        <v>205.3275294625404</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D37" t="n">
-        <v>205.3275294625404</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E37" t="n">
-        <v>205.3275294625404</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F37" t="n">
-        <v>205.3275294625404</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G37" t="n">
-        <v>205.3275294625404</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H37" t="n">
         <v>46.89499644164432</v>
@@ -7122,25 +7122,25 @@
         <v>607.7685734363102</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424309</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363102</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363102</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363102</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363102</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363102</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="Y37" t="n">
-        <v>386.9759942927801</v>
+        <v>194.8080900240374</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1261.940921346611</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="C38" t="n">
-        <v>1261.940921346611</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="D38" t="n">
-        <v>1261.940921346611</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="E38" t="n">
-        <v>876.152668748367</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="F38" t="n">
-        <v>465.1667639587595</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H38" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I38" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J38" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K38" t="n">
         <v>392.9020949275675</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T38" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="U38" t="n">
-        <v>2335.911795936108</v>
+        <v>1833.394742014089</v>
       </c>
       <c r="V38" t="n">
-        <v>2004.848908592537</v>
+        <v>1502.331854670518</v>
       </c>
       <c r="W38" t="n">
-        <v>1652.080253322423</v>
+        <v>1414.957008372787</v>
       </c>
       <c r="X38" t="n">
-        <v>1652.080253322423</v>
+        <v>1041.491250111708</v>
       </c>
       <c r="Y38" t="n">
-        <v>1261.940921346611</v>
+        <v>1041.491250111708</v>
       </c>
     </row>
     <row r="39">
@@ -7229,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>622.1327649551154</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C39" t="n">
-        <v>447.6797356739884</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D39" t="n">
-        <v>380.8823374219722</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E39" t="n">
-        <v>221.6448824165167</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F39" t="n">
-        <v>221.6448824165167</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
         <v>221.6448824165167</v>
@@ -7265,40 +7265,40 @@
         <v>1188.843414867958</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.568096156132</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O39" t="n">
-        <v>2102.280527752458</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P39" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q39" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S39" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T39" t="n">
-        <v>1923.529830251457</v>
+        <v>1983.973569036802</v>
       </c>
       <c r="U39" t="n">
-        <v>1695.349365905614</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="V39" t="n">
-        <v>1460.197257673872</v>
+        <v>1755.793104690959</v>
       </c>
       <c r="W39" t="n">
-        <v>1205.95990094567</v>
+        <v>1501.555747962758</v>
       </c>
       <c r="X39" t="n">
-        <v>998.1084007401373</v>
+        <v>1293.704247757225</v>
       </c>
       <c r="Y39" t="n">
-        <v>790.3481019751835</v>
+        <v>1085.943948992271</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="C40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="D40" t="n">
-        <v>46.89499644164432</v>
+        <v>457.6519340239745</v>
       </c>
       <c r="E40" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="F40" t="n">
-        <v>46.89499644164432</v>
+        <v>309.7388404415814</v>
       </c>
       <c r="G40" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H40" t="n">
         <v>46.89499644164432</v>
@@ -7365,19 +7365,19 @@
         <v>607.7685734363102</v>
       </c>
       <c r="U40" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V40" t="n">
-        <v>336.3121664786049</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="W40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="X40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363102</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1011.349778919179</v>
+        <v>826.8434181716636</v>
       </c>
       <c r="C41" t="n">
-        <v>642.3872619787674</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="D41" t="n">
-        <v>432.6832490398886</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E41" t="n">
-        <v>46.89499644164432</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F41" t="n">
         <v>46.89499644164432</v>
@@ -7435,28 +7435,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2287.414132825282</v>
       </c>
       <c r="S41" t="n">
-        <v>2161.554709220192</v>
+        <v>2287.414132825282</v>
       </c>
       <c r="T41" t="n">
-        <v>2161.554709220192</v>
+        <v>2287.414132825282</v>
       </c>
       <c r="U41" t="n">
-        <v>2161.554709220192</v>
+        <v>2287.414132825282</v>
       </c>
       <c r="V41" t="n">
-        <v>2161.554709220192</v>
+        <v>1956.351245481711</v>
       </c>
       <c r="W41" t="n">
-        <v>2161.554709220192</v>
+        <v>1603.582590211597</v>
       </c>
       <c r="X41" t="n">
-        <v>1788.088950959112</v>
+        <v>1603.582590211597</v>
       </c>
       <c r="Y41" t="n">
-        <v>1397.949618983301</v>
+        <v>1213.443258235785</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.8792202047736</v>
+        <v>821.6754629010848</v>
       </c>
       <c r="C42" t="n">
-        <v>814.4261909236466</v>
+        <v>647.2224336199578</v>
       </c>
       <c r="D42" t="n">
-        <v>665.4917812623953</v>
+        <v>498.2880239587065</v>
       </c>
       <c r="E42" t="n">
-        <v>506.2543262569397</v>
+        <v>339.050568953251</v>
       </c>
       <c r="F42" t="n">
-        <v>359.7197682838247</v>
+        <v>192.516010980136</v>
       </c>
       <c r="G42" t="n">
-        <v>221.6448824165167</v>
+        <v>192.516010980136</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7490,52 +7490,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P42" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q42" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S42" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T42" t="n">
-        <v>2290.276285501115</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="U42" t="n">
-        <v>2062.095821155272</v>
+        <v>1894.892063851584</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.94371292353</v>
+        <v>1659.739955619841</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.706356195328</v>
+        <v>1405.50259889164</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.854855989795</v>
+        <v>1197.651098686107</v>
       </c>
       <c r="Y42" t="n">
-        <v>1157.094557224842</v>
+        <v>989.8907999211528</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F43" t="n">
-        <v>89.82486451910106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G43" t="n">
-        <v>89.82486451910106</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H43" t="n">
         <v>46.89499644164432</v>
@@ -7593,28 +7593,28 @@
         <v>607.7685734363102</v>
       </c>
       <c r="R43" t="n">
-        <v>453.4106385108907</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S43" t="n">
-        <v>236.7148120170114</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T43" t="n">
-        <v>236.7148120170114</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U43" t="n">
-        <v>236.7148120170114</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="V43" t="n">
-        <v>236.7148120170114</v>
+        <v>336.3121664786049</v>
       </c>
       <c r="W43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y43" t="n">
-        <v>236.7148120170114</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>841.7762365110889</v>
+        <v>1185.109116778414</v>
       </c>
       <c r="C44" t="n">
-        <v>841.7762365110889</v>
+        <v>816.1465998380024</v>
       </c>
       <c r="D44" t="n">
-        <v>841.7762365110889</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="E44" t="n">
-        <v>841.7762365110889</v>
+        <v>457.8809012312519</v>
       </c>
       <c r="F44" t="n">
-        <v>841.7762365110889</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G44" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H44" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
@@ -7651,13 +7651,13 @@
         <v>137.0453218915535</v>
       </c>
       <c r="K44" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275671</v>
       </c>
       <c r="L44" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M44" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
         <v>1610.799342072557</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S44" t="n">
-        <v>2344.749822082216</v>
+        <v>2131.32628967803</v>
       </c>
       <c r="T44" t="n">
-        <v>2344.749822082216</v>
+        <v>1911.343530309608</v>
       </c>
       <c r="U44" t="n">
-        <v>2344.749822082216</v>
+        <v>1911.343530309608</v>
       </c>
       <c r="V44" t="n">
-        <v>2344.749822082216</v>
+        <v>1911.343530309608</v>
       </c>
       <c r="W44" t="n">
-        <v>1991.981166812102</v>
+        <v>1558.574875039494</v>
       </c>
       <c r="X44" t="n">
-        <v>1618.515408551022</v>
+        <v>1185.109116778414</v>
       </c>
       <c r="Y44" t="n">
-        <v>1228.376076575211</v>
+        <v>1185.109116778414</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>829.641765199318</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C45" t="n">
-        <v>655.188735918191</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D45" t="n">
-        <v>506.2543262569397</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F45" t="n">
         <v>359.7197682838247</v>
@@ -7730,13 +7730,13 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>276.0646041288937</v>
+        <v>273.1268607498447</v>
       </c>
       <c r="L45" t="n">
-        <v>645.6158192373777</v>
+        <v>642.6780758583286</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.843878304552</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N45" t="n">
         <v>1637.630816213677</v>
@@ -7751,28 +7751,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1520.640996459217</v>
+        <v>1460.197257673872</v>
       </c>
       <c r="W45" t="n">
-        <v>1266.403639731015</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1058.552139525482</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="Y45" t="n">
-        <v>850.7918407605284</v>
+        <v>998.1996021807163</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="C46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="D46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="E46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="F46" t="n">
-        <v>2197.859874584306</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="G46" t="n">
-        <v>2028.721934330815</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
-        <v>1869.745371654229</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J46" t="n">
-        <v>1783.87624508755</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K46" t="n">
-        <v>1824.448464912935</v>
+        <v>87.46721626702977</v>
       </c>
       <c r="L46" t="n">
-        <v>1931.893372366003</v>
+        <v>194.9121237200978</v>
       </c>
       <c r="M46" t="n">
-        <v>2055.568085482113</v>
+        <v>318.5868368362075</v>
       </c>
       <c r="N46" t="n">
-        <v>2181.736706768751</v>
+        <v>444.7554581228448</v>
       </c>
       <c r="O46" t="n">
-        <v>2282.257553995577</v>
+        <v>545.2763053496715</v>
       </c>
       <c r="P46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="Q46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="R46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="S46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="T46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="U46" t="n">
-        <v>2344.749822082216</v>
+        <v>607.7685734363102</v>
       </c>
       <c r="V46" t="n">
-        <v>2344.749822082216</v>
+        <v>353.0840852304234</v>
       </c>
       <c r="W46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="X46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
       <c r="Y46" t="n">
-        <v>2344.749822082216</v>
+        <v>63.66691519346278</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8063,16 +8063,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K12" t="n">
-        <v>47.90390621998491</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>309.749325445695</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>108.5094987082738</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9251,10 +9251,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>249.1437329574062</v>
       </c>
       <c r="N18" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>200.8922269696948</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509598</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>101.9014378473433</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>154.2790145108656</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10439,13 +10439,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>476.3749567889587</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>315.4953510853424</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>57.08896698613911</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>65.48544285212</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>476.3749567889587</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841359</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,16 +10913,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>262.7810435509599</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.8897585970532</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>57.08896698613911</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>57.0889669861391</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711642</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599042</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11378,7 +11378,7 @@
         <v>65.48544285212</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579836</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>476.3749567889585</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>354.8996777532147</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>202.5069275029572</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006113</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>53.38246657340287</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>30.45538403358736</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>116.3299895173159</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,10 +23460,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
         <v>214.5288682289405</v>
@@ -23472,13 +23472,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>95.62495673760435</v>
       </c>
       <c r="F14" t="n">
-        <v>374.9562062627111</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749141</v>
       </c>
       <c r="S15" t="n">
-        <v>159.6212195484502</v>
+        <v>130.237302184546</v>
       </c>
       <c r="T15" t="n">
-        <v>66.76363414007631</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9366819640819</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>54.86879163620181</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R16" t="n">
         <v>152.8143555761653</v>
@@ -23709,16 +23709,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23746,13 +23746,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>45.7956457297952</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>314.6443139103135</v>
       </c>
     </row>
     <row r="18">
@@ -23813,7 +23813,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>53.38246657340301</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -23822,7 +23822,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>120.4210546291172</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
@@ -23831,7 +23831,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>102.0151126818321</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23937,7 +23937,7 @@
         <v>40.57441713704631</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
         <v>214.5288682289405</v>
@@ -23952,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>124.4143733518646</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>185.8494492017029</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006111</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>64.84529008963906</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24059,7 +24059,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G21" t="n">
         <v>136.6941370086349</v>
@@ -24068,7 +24068,7 @@
         <v>105.9637990594094</v>
       </c>
       <c r="I21" t="n">
-        <v>67.03858805571426</v>
+        <v>67.03858805571424</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>53.38246657340306</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24132,10 +24132,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>99.73451069193409</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
-        <v>139.0783256288916</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J22" t="n">
         <v>54.86879163620181</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>40.57441713704631</v>
+        <v>40.5744171370463</v>
       </c>
       <c r="R22" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T22" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>162.9685389363391</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24211,7 +24211,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>190.4022442420882</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>73.62980964006113</v>
       </c>
       <c r="S23" t="n">
-        <v>168.4992009837646</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24296,16 +24296,16 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>53.38246657340298</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>5.910500182201289</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.5472709665096</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>243.1669285369033</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>242.023997085344</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>243.1721097210866</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24533,13 +24533,13 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>99.50696423532085</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H27" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>67.03858805571426</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,7 +24578,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>190.0766035820378</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>115.435192095701</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,10 +24618,10 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J28" t="n">
         <v>54.86879163620181</v>
@@ -24654,16 +24654,16 @@
         <v>214.5288682289405</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>18.75799862387038</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>51.76251385511915</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
         <v>163.6851955497072</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,13 +24767,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>78.55602078855478</v>
+        <v>70.14174293906301</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,10 +24894,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5474909134079</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>132.0112734539121</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24916,16 +24916,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>30.70896332692155</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>73.62980964006113</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>126.1164897950861</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>123.9809690644819</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4465608509556</v>
+        <v>131.9278960564172</v>
       </c>
       <c r="H34" t="n">
         <v>157.3867970498209</v>
@@ -25131,7 +25131,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>327.0451232326991</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
-        <v>265.0246842481582</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>103.3549089711747</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25250,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749142</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>51.34220643427398</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>76.57988169550521</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5385893591337663</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
@@ -25362,10 +25362,10 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S37" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.6194376234954</v>
+        <v>31.31742727428588</v>
       </c>
       <c r="U37" t="n">
         <v>286.2893338015361</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,7 +25399,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I38" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006113</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
-        <v>242.4989120093339</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>262.7398708826596</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>70.43910215024479</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>81.31564129514278</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>59.83930139749142</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>64.61795234083881</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>139.0783256288916</v>
@@ -25605,13 +25605,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U40" t="n">
-        <v>17.5474909134079</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25633,13 +25633,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>147.076068811193</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -25675,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006111</v>
+        <v>16.86747727569593</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
         <v>217.7829317747374</v>
@@ -25687,13 +25687,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25721,10 +25721,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>28.83758272201695</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,13 +25754,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>143.6184697512195</v>
+        <v>197.5472709665096</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H43" t="n">
-        <v>114.8862276531387</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
         <v>139.0783256288915</v>
@@ -25833,22 +25833,22 @@
         <v>40.5744171370463</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T43" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2893338015361</v>
+        <v>17.5474909134079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>117.8869409556001</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,13 +25912,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006111</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>43.70367429332023</v>
       </c>
       <c r="T44" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.2485578939812</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>145.594608844269</v>
+        <v>12.23679310030005</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,10 +25952,10 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26009,7 +26009,7 @@
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>150.8423612866553</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
-        <v>54.06789032787965</v>
+        <v>139.0783256288915</v>
       </c>
       <c r="J46" t="n">
         <v>54.86879163620181</v>
@@ -26082,10 +26082,10 @@
         <v>286.2893338015361</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>665058.6169157359</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665058.6169157359</v>
+        <v>665058.6169157358</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>665058.6169157359</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>665058.6169157356</v>
+        <v>665058.6169157355</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>665058.6169157354</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>665058.6169157355</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>665058.6169157359</v>
+        <v>665058.616915736</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>665058.6169157355</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>665058.6169157355</v>
+        <v>665058.6169157356</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>665058.6169157356</v>
+        <v>665058.6169157355</v>
       </c>
     </row>
     <row r="16">
@@ -26316,40 +26316,40 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
+        <v>304032.5147288475</v>
+      </c>
+      <c r="F2" t="n">
+        <v>304032.5147288477</v>
+      </c>
+      <c r="G2" t="n">
+        <v>304032.5147288477</v>
+      </c>
+      <c r="H2" t="n">
+        <v>304032.5147288476</v>
+      </c>
+      <c r="I2" t="n">
+        <v>304032.5147288477</v>
+      </c>
+      <c r="J2" t="n">
+        <v>304032.5147288479</v>
+      </c>
+      <c r="K2" t="n">
         <v>304032.5147288478</v>
       </c>
-      <c r="F2" t="n">
-        <v>304032.5147288475</v>
-      </c>
-      <c r="G2" t="n">
-        <v>304032.5147288475</v>
-      </c>
-      <c r="H2" t="n">
-        <v>304032.5147288474</v>
-      </c>
-      <c r="I2" t="n">
-        <v>304032.5147288475</v>
-      </c>
-      <c r="J2" t="n">
-        <v>304032.5147288476</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>304032.5147288477</v>
-      </c>
-      <c r="L2" t="n">
-        <v>304032.5147288478</v>
       </c>
       <c r="M2" t="n">
         <v>304032.5147288477</v>
       </c>
       <c r="N2" t="n">
-        <v>304032.5147288476</v>
+        <v>304032.5147288475</v>
       </c>
       <c r="O2" t="n">
         <v>304032.5147288477</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.53382007602</v>
+        <v>86018.53382007603</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26530,40 +26530,40 @@
         <v>102854.7959178457</v>
       </c>
       <c r="E6" t="n">
-        <v>-128021.4830311023</v>
+        <v>-135328.7222894989</v>
       </c>
       <c r="F6" t="n">
-        <v>217590.8597478502</v>
+        <v>210283.620489454</v>
       </c>
       <c r="G6" t="n">
-        <v>217590.8597478502</v>
+        <v>210283.620489454</v>
       </c>
       <c r="H6" t="n">
-        <v>217590.85974785</v>
+        <v>210283.6204894539</v>
       </c>
       <c r="I6" t="n">
-        <v>217590.8597478502</v>
+        <v>210283.620489454</v>
       </c>
       <c r="J6" t="n">
-        <v>154530.917148744</v>
+        <v>147223.677890348</v>
       </c>
       <c r="K6" t="n">
-        <v>217590.8597478503</v>
+        <v>210283.6204894541</v>
       </c>
       <c r="L6" t="n">
-        <v>217590.8597478504</v>
+        <v>210283.620489454</v>
       </c>
       <c r="M6" t="n">
-        <v>131572.3259277743</v>
+        <v>124265.0866693779</v>
       </c>
       <c r="N6" t="n">
-        <v>217590.8597478502</v>
+        <v>210283.6204894538</v>
       </c>
       <c r="O6" t="n">
-        <v>217590.8597478503</v>
+        <v>210283.620489454</v>
       </c>
       <c r="P6" t="n">
-        <v>217590.8597478504</v>
+        <v>210283.6204894541</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="G3" t="n">
         <v>301.9048087062786</v>
       </c>
       <c r="H3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="I3" t="n">
         <v>301.9048087062786</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062786</v>
+        <v>301.9048087062787</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428951</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,16 +27384,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>206.5399494528818</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,22 +27423,22 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>259.542103988905</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>15.22271800949659</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>148.233450634791</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>344.2880590747468</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27675,16 +27675,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5329255313623</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,16 +27694,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>22.23186360206134</v>
+        <v>35.77818448781508</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27712,13 +27712,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27757,13 +27757,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>191.5849729979769</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
@@ -27873,7 +27873,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>305.5924679797923</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27940,16 +27940,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>58.11593364021995</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27994,7 +27994,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>33.95871600468959</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.36645333167576</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,7 +28028,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>117.9236889088724</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31758,7 +31758,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
@@ -31779,22 +31779,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I12" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J12" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
@@ -31849,25 +31849,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T12" t="n">
         <v>2.617457728311981</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H13" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L13" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N13" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R13" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T13" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I14" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J14" t="n">
         <v>103.0102241525006</v>
@@ -32016,22 +32016,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P14" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q14" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R14" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S14" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T14" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I15" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J15" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K15" t="n">
         <v>104.8606541711232</v>
@@ -32086,25 +32086,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M15" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N15" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O15" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P15" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q15" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R15" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S15" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T15" t="n">
         <v>2.617457728311981</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H16" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I16" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J16" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K16" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L16" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M16" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N16" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O16" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P16" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q16" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R16" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S16" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T16" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I20" t="n">
-        <v>46.79069402069873</v>
+        <v>46.79069402069874</v>
       </c>
       <c r="J20" t="n">
         <v>103.0102241525006</v>
@@ -32490,22 +32490,22 @@
         <v>204.4927189463719</v>
       </c>
       <c r="P20" t="n">
-        <v>174.5298045144673</v>
+        <v>174.5298045144674</v>
       </c>
       <c r="Q20" t="n">
-        <v>131.0646147183121</v>
+        <v>131.0646147183122</v>
       </c>
       <c r="R20" t="n">
-        <v>76.23930830108856</v>
+        <v>76.23930830108857</v>
       </c>
       <c r="S20" t="n">
-        <v>27.65690785284151</v>
+        <v>27.65690785284152</v>
       </c>
       <c r="T20" t="n">
-        <v>5.312917789393907</v>
+        <v>5.312917789393908</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0970950138552855</v>
+        <v>0.09709501385528552</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,16 +32542,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6493801545757691</v>
+        <v>0.6493801545757693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.271645177087034</v>
+        <v>6.271645177087036</v>
       </c>
       <c r="I21" t="n">
         <v>22.35804479570083</v>
       </c>
       <c r="J21" t="n">
-        <v>61.35218381454669</v>
+        <v>61.3521838145467</v>
       </c>
       <c r="K21" t="n">
         <v>104.8606541711232</v>
@@ -32560,25 +32560,25 @@
         <v>140.9980901415503</v>
       </c>
       <c r="M21" t="n">
-        <v>164.5381207449218</v>
+        <v>164.5381207449219</v>
       </c>
       <c r="N21" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O21" t="n">
-        <v>154.5040580932971</v>
+        <v>154.5040580932972</v>
       </c>
       <c r="P21" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q21" t="n">
-        <v>82.8928070998824</v>
+        <v>82.89280709988242</v>
       </c>
       <c r="R21" t="n">
-        <v>40.31853275515171</v>
+        <v>40.31853275515172</v>
       </c>
       <c r="S21" t="n">
-        <v>12.06195155538763</v>
+        <v>12.06195155538764</v>
       </c>
       <c r="T21" t="n">
         <v>2.617457728311981</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5444185075031254</v>
+        <v>0.5444185075031255</v>
       </c>
       <c r="H22" t="n">
-        <v>4.8403754576187</v>
+        <v>4.840375457618701</v>
       </c>
       <c r="I22" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J22" t="n">
-        <v>38.49038848047096</v>
+        <v>38.49038848047097</v>
       </c>
       <c r="K22" t="n">
-        <v>63.25153205354491</v>
+        <v>63.25153205354492</v>
       </c>
       <c r="L22" t="n">
-        <v>80.94018428823739</v>
+        <v>80.9401842882374</v>
       </c>
       <c r="M22" t="n">
-        <v>85.34007568069444</v>
+        <v>85.34007568069447</v>
       </c>
       <c r="N22" t="n">
-        <v>83.3108794254556</v>
+        <v>83.31087942545561</v>
       </c>
       <c r="O22" t="n">
-        <v>76.95108140598724</v>
+        <v>76.95108140598725</v>
       </c>
       <c r="P22" t="n">
-        <v>65.84494385292342</v>
+        <v>65.84494385292344</v>
       </c>
       <c r="Q22" t="n">
-        <v>45.58762611464807</v>
+        <v>45.58762611464808</v>
       </c>
       <c r="R22" t="n">
         <v>24.47903580100416</v>
       </c>
       <c r="S22" t="n">
-        <v>9.487729808031736</v>
+        <v>9.487729808031737</v>
       </c>
       <c r="T22" t="n">
-        <v>2.32615180478608</v>
+        <v>2.326151804786081</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02969555495471596</v>
+        <v>0.02969555495471597</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,16 +34783,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35254,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,13 +35409,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M11" t="n">
         <v>432.2802359107712</v>
@@ -35424,13 +35424,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828883</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>14.92312141674913</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L12" t="n">
         <v>373.2840556651353</v>
       </c>
       <c r="M12" t="n">
-        <v>488.1091505729034</v>
+        <v>332.1534122685986</v>
       </c>
       <c r="N12" t="n">
         <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K14" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L14" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M14" t="n">
         <v>432.2802359107712</v>
@@ -35661,13 +35661,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O14" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P14" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q14" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K15" t="n">
-        <v>75.52871390503797</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L15" t="n">
         <v>373.2840556651353</v>
@@ -35737,10 +35737,10 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O15" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P15" t="n">
         <v>308.4914891638518</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L16" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M16" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N16" t="n">
         <v>127.4430518046842</v>
@@ -35822,7 +35822,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P16" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35971,10 +35971,10 @@
         <v>373.2840556651353</v>
       </c>
       <c r="M18" t="n">
-        <v>488.1091505729034</v>
+        <v>271.5478197803097</v>
       </c>
       <c r="N18" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O18" t="n">
         <v>405.7701329255822</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,13 +36120,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>91.06093479788807</v>
+        <v>91.06093479788808</v>
       </c>
       <c r="K20" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L20" t="n">
-        <v>373.4238170675629</v>
+        <v>373.423817067563</v>
       </c>
       <c r="M20" t="n">
         <v>432.2802359107712</v>
@@ -36135,13 +36135,13 @@
         <v>424.4951865620588</v>
       </c>
       <c r="O20" t="n">
-        <v>355.1946887874305</v>
+        <v>355.1946887874306</v>
       </c>
       <c r="P20" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q20" t="n">
-        <v>121.0739155037673</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.60559248828883</v>
+        <v>60.60559248828884</v>
       </c>
       <c r="K21" t="n">
-        <v>167.911442166459</v>
+        <v>231.4844522093429</v>
       </c>
       <c r="L21" t="n">
         <v>373.2840556651353</v>
@@ -36211,16 +36211,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N21" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O21" t="n">
-        <v>405.7701329255822</v>
+        <v>405.7701329255823</v>
       </c>
       <c r="P21" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.98204022766206</v>
+        <v>40.98204022766207</v>
       </c>
       <c r="L22" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M22" t="n">
-        <v>124.923952642535</v>
+        <v>124.9239526425351</v>
       </c>
       <c r="N22" t="n">
         <v>127.4430518046842</v>
@@ -36296,7 +36296,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P22" t="n">
-        <v>63.12350311781691</v>
+        <v>63.12350311781692</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N24" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O24" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>91.93015837125802</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
         <v>152.98832074971</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K27" t="n">
         <v>231.4844522093428</v>
@@ -36685,16 +36685,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N27" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O27" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P27" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2840556651353</v>
+        <v>156.7227248725416</v>
       </c>
       <c r="M30" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N30" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O30" t="n">
         <v>405.7701329255822</v>
@@ -37159,13 +37159,13 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N33" t="n">
-        <v>516.8936174628016</v>
+        <v>513.9261999082067</v>
       </c>
       <c r="O33" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P33" t="n">
-        <v>305.5240716092571</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>60.60559248828883</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>513.9261999082067</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329886</v>
       </c>
       <c r="P36" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N39" t="n">
-        <v>516.8936174628016</v>
+        <v>300.3322866702078</v>
       </c>
       <c r="O39" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P39" t="n">
-        <v>244.9184791209679</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651353</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255823</v>
@@ -37879,7 +37879,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q42" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>91.06093479788808</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848628</v>
+        <v>258.4411848848623</v>
       </c>
       <c r="L44" t="n">
         <v>373.423817067563</v>
@@ -38037,7 +38037,7 @@
         <v>265.0955169306804</v>
       </c>
       <c r="Q44" t="n">
-        <v>121.0739155037669</v>
+        <v>121.0739155037674</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547479</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651353</v>
@@ -38107,7 +38107,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N45" t="n">
-        <v>513.9261999082065</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O45" t="n">
         <v>405.7701329255823</v>
